--- a/Empfaenger-Upload-Links-7.xlsx
+++ b/Empfaenger-Upload-Links-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{584BD0B3-9A59-46BE-8D72-DDA7C36A6F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F531E8B2-593A-4FB4-9436-13F956B3B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2520" yWindow="-14865" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="19335" yWindow="-15015" windowWidth="15135" windowHeight="8235" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Link</t>
+    <t>UploadLink</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Empfaenger-Upload-Links-7.xlsx
+++ b/Empfaenger-Upload-Links-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F531E8B2-593A-4FB4-9436-13F956B3B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E56232-5F1C-4D61-AC77-55547F6F8E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19335" yWindow="-15015" windowWidth="15135" windowHeight="8235" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>alfred.gerstmayr@gmail.com</t>
   </si>
   <si>
-    <t>https://ppmg365-my.sharepoint.com/:f:/g/personal/alfred_gerstmayr_ppmg_at/EtGa0MvgDzFGolW7WpRNLusBDuvdS6L_gIoJCy0GHSikIA</t>
-  </si>
-  <si>
     <t>m.radlgruber@rcon.at</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>UploadLink</t>
+  </si>
+  <si>
+    <t>Upload-Radlgruber-Michael</t>
   </si>
 </sst>
 </file>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -471,10 +471,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -519,10 +519,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -539,8 +539,8 @@
     <hyperlink ref="B5" r:id="rId7" xr:uid="{F5E0EFC8-C322-4606-BEB4-9D3804BFEE0E}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{A0193121-9AD2-4D8B-A5B6-57886CBAF5E7}"/>
     <hyperlink ref="A4" r:id="rId9" xr:uid="{4DB39B8B-455E-43EC-B277-6C962E973B8E}"/>
-    <hyperlink ref="B7" r:id="rId10" xr:uid="{18272843-437C-42E7-B85D-41B870693530}"/>
-    <hyperlink ref="A7" r:id="rId11" xr:uid="{93BE6C7B-6D67-4339-B85B-BC316C7FFF4D}"/>
+    <hyperlink ref="B7" r:id="rId10" display="https://ppmg365-my.sharepoint.com/:f:/g/personal/alfred_gerstmayr_ppmg_at/EtGa0MvgDzFGolW7WpRNLusB3jQYKMaNzc2AeoOI4i3wsA?e=l2gvKK" xr:uid="{DFD809DD-DAD1-4D86-A6E0-32812C652DEF}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{EE231C4B-28CD-436F-9C23-B213825212C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Empfaenger-Upload-Links-7.xlsx
+++ b/Empfaenger-Upload-Links-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E56232-5F1C-4D61-AC77-55547F6F8E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E303F-BB96-4524-B21E-98572DA316E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15390" windowHeight="9443" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>UploadLink</t>
   </si>
   <si>
-    <t>Upload-Radlgruber-Michael</t>
+    <t>https://ppmg365-my.sharepoint.com/:f:/g/personal/alfred_gerstmayr_ppmg_at/EtGa0MvgDzFGolW7WpRNLusBDuvdS6L_gIoJCy0GHSikIA</t>
   </si>
 </sst>
 </file>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -539,8 +539,7 @@
     <hyperlink ref="B5" r:id="rId7" xr:uid="{F5E0EFC8-C322-4606-BEB4-9D3804BFEE0E}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{A0193121-9AD2-4D8B-A5B6-57886CBAF5E7}"/>
     <hyperlink ref="A4" r:id="rId9" xr:uid="{4DB39B8B-455E-43EC-B277-6C962E973B8E}"/>
-    <hyperlink ref="B7" r:id="rId10" display="https://ppmg365-my.sharepoint.com/:f:/g/personal/alfred_gerstmayr_ppmg_at/EtGa0MvgDzFGolW7WpRNLusB3jQYKMaNzc2AeoOI4i3wsA?e=l2gvKK" xr:uid="{DFD809DD-DAD1-4D86-A6E0-32812C652DEF}"/>
-    <hyperlink ref="A7" r:id="rId11" xr:uid="{EE231C4B-28CD-436F-9C23-B213825212C6}"/>
+    <hyperlink ref="A7" r:id="rId10" xr:uid="{EE231C4B-28CD-436F-9C23-B213825212C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
